--- a/Dave.xlsx
+++ b/Dave.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\TP3-Stats-BlackJack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="17715" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil4" sheetId="4" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="Données" sheetId="1" r:id="rId1"/>
+    <sheet name="Parties contre l'IA optimale" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
   <si>
     <t>Victoires</t>
   </si>
@@ -26,9 +29,6 @@
   </si>
   <si>
     <t>Nulles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA </t>
   </si>
   <si>
     <t>----------------</t>
@@ -41,6 +41,66 @@
   </si>
   <si>
     <t>-------</t>
+  </si>
+  <si>
+    <t>Niveau de l'IA</t>
+  </si>
+  <si>
+    <t>Contre l'IA à 50 lorsque l'IA analysée joue en premier</t>
+  </si>
+  <si>
+    <t>Contre l'IA à 50 lorsque l'IA analysée joue en deuxième</t>
+  </si>
+  <si>
+    <t>Contre l'IA à 80 lorsque l'IA analysée joue en premier</t>
+  </si>
+  <si>
+    <t>Contre l'IA à 65 lorsque l'IA analysée joue en premier</t>
+  </si>
+  <si>
+    <t>Contre l'IA à 65 lorsque l'IA analysée joue en deuxième</t>
+  </si>
+  <si>
+    <t>Contre l'IA à 80 lorsque l'IA analysée joue en deuxième</t>
+  </si>
+  <si>
+    <t>Totaux contre l'IA à 50</t>
+  </si>
+  <si>
+    <t>Totaux des victoires contre les 3 IA (6,000,000 de parties jouées)</t>
+  </si>
+  <si>
+    <t>Partie</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Pointage pour</t>
+  </si>
+  <si>
+    <t>Pointage contre</t>
+  </si>
+  <si>
+    <t>Défaite</t>
+  </si>
+  <si>
+    <t>Nulle</t>
+  </si>
+  <si>
+    <t>Victoire</t>
+  </si>
+  <si>
+    <t>Totaux</t>
+  </si>
+  <si>
+    <t>Victoires: 7</t>
+  </si>
+  <si>
+    <t>Défaites: 4</t>
+  </si>
+  <si>
+    <t>Nulles: 1</t>
   </si>
 </sst>
 </file>
@@ -90,12 +150,1201 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nombre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de v</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ictoires des IA contre les 3 de base</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Victoires</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$R$4:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$S$4:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2555118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2510092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2464244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2356977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2259494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2149845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1990376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1955091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1955070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="953802432"/>
+        <c:axId val="953804608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953802432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Niveau</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> de l'IA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953804608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="953804608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Nombre de victoires</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953802432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4667250" cy="2533650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16640175" y="5962650"/>
+          <a:ext cx="4667250" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </a:rPr>
+            <a:t>Analyse des données</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Après</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> tous ces test, il n'y a plus aucun doute que l'intelligence artificielle qui a accumulé le plus de victoires est celle qui joue seulement si elle a 40% de chance ou plus de ne pas dépasser.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Avant de faire les teste, je pensais que l'IA qui allait jouer en deuxième avait plus de chances de gagner puisqu'elle ne joue pas si son adversaire  à dépassé 21. Contre mes attentes, la différence est presque négligeable. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Comme on peut l'observer, le nombre de victoires descent drastiquement lorsque que l'IA joue à 50% et plus de ne pas dépasser.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Conclusion: Le risque, c'est payant!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -137,7 +1386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +1421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,28 +1630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:CY39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="Q8" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CY32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
@@ -410,7 +1647,7 @@
     <col min="14" max="14" width="23.85546875" customWidth="1"/>
     <col min="15" max="15" width="25.5703125" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" customWidth="1"/>
     <col min="18" max="18" width="25.5703125" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" customWidth="1"/>
@@ -501,330 +1738,622 @@
   <sheetData>
     <row r="1" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>469341</v>
-      </c>
-      <c r="D3">
-        <v>427935</v>
-      </c>
-      <c r="E3">
-        <v>102724</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>415117</v>
-      </c>
-      <c r="J3">
-        <v>482623</v>
-      </c>
-      <c r="K3">
-        <v>102260</v>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>453016</v>
+        <v>469341</v>
       </c>
       <c r="D4">
-        <v>433070</v>
+        <v>427935</v>
       </c>
       <c r="E4">
-        <v>113914</v>
+        <v>102724</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>425964</v>
+        <v>482623</v>
       </c>
       <c r="J4">
-        <v>458519</v>
+        <v>415117</v>
       </c>
       <c r="K4">
-        <v>115517</v>
+        <v>102260</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <f>C4 + I4</f>
+        <v>951964</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:P12" si="0">D4 + J4</f>
+        <v>843052</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>204984</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <f>N4 + N17 + N30</f>
+        <v>2555118</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:U12" si="1">O4 + O17 + O30</f>
+        <v>1992413</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>452559</v>
       </c>
     </row>
     <row r="5" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>438862</v>
+        <v>453016</v>
       </c>
       <c r="D5">
-        <v>443791</v>
+        <v>433070</v>
       </c>
       <c r="E5">
-        <v>117347</v>
+        <v>113914</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>438307</v>
+        <v>458519</v>
       </c>
       <c r="J5">
-        <v>443658</v>
+        <v>425964</v>
       </c>
       <c r="K5">
-        <v>118035</v>
+        <v>115517</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <f>C5 + I5</f>
+        <v>911535</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>859034</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>229431</v>
+      </c>
+      <c r="R5">
+        <v>45</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S12" si="2">N5 + N18 + N31</f>
+        <v>2510092</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>1981905</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>508093</v>
       </c>
     </row>
     <row r="6" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>416039</v>
+        <v>438862</v>
       </c>
       <c r="D6">
-        <v>474001</v>
+        <v>443791</v>
       </c>
       <c r="E6">
-        <v>109960</v>
+        <v>117347</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>469089</v>
+        <v>443658</v>
       </c>
       <c r="J6">
-        <v>419682</v>
+        <v>438307</v>
       </c>
       <c r="K6">
-        <v>111229</v>
+        <v>118035</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N12" si="3">C6 + I6</f>
+        <v>882520</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>882098</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>235382</v>
+      </c>
+      <c r="R6">
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>2464244</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>2012714</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>523132</v>
       </c>
     </row>
     <row r="7" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>401876</v>
+        <v>416039</v>
       </c>
       <c r="D7">
-        <v>492801</v>
+        <v>474001</v>
       </c>
       <c r="E7">
-        <v>105323</v>
+        <v>109960</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I7">
-        <v>494794</v>
+        <v>419682</v>
       </c>
       <c r="J7">
-        <v>400462</v>
+        <v>469089</v>
       </c>
       <c r="K7">
-        <v>104744</v>
+        <v>111229</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>835721</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>943090</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>221189</v>
+      </c>
+      <c r="R7">
+        <v>55</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>2356977</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>2104918</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>538195</v>
       </c>
     </row>
     <row r="8" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>385120</v>
+        <v>401876</v>
       </c>
       <c r="D8">
-        <v>516932</v>
+        <v>492801</v>
       </c>
       <c r="E8">
-        <v>97948</v>
+        <v>105323</v>
       </c>
       <c r="H8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>515318</v>
+        <v>400462</v>
       </c>
       <c r="J8">
-        <v>385138</v>
+        <v>494794</v>
       </c>
       <c r="K8">
-        <v>99544</v>
+        <v>104744</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>802338</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>987595</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>210067</v>
+      </c>
+      <c r="R8">
+        <v>60</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>2259494</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>2200851</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>539745</v>
       </c>
     </row>
     <row r="9" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>364370</v>
+        <v>385120</v>
       </c>
       <c r="D9">
-        <v>545250</v>
+        <v>516932</v>
       </c>
       <c r="E9">
-        <v>90380</v>
+        <v>97948</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I9">
-        <v>541802</v>
+        <v>385138</v>
       </c>
       <c r="J9">
-        <v>365507</v>
+        <v>515318</v>
       </c>
       <c r="K9">
-        <v>92691</v>
+        <v>99544</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>770258</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1032250</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>197492</v>
+      </c>
+      <c r="R9">
+        <v>65</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>2149845</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>2311467</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>538778</v>
       </c>
     </row>
     <row r="10" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>360233</v>
+        <v>364370</v>
       </c>
       <c r="D10">
-        <v>551803</v>
+        <v>545250</v>
       </c>
       <c r="E10">
-        <v>87964</v>
+        <v>90380</v>
       </c>
       <c r="H10">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>551186</v>
+        <v>365507</v>
       </c>
       <c r="J10">
-        <v>358228</v>
+        <v>541802</v>
       </c>
       <c r="K10">
-        <v>90586</v>
+        <v>92691</v>
+      </c>
+      <c r="M10">
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>729877</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1087052</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>183071</v>
+      </c>
+      <c r="R10">
+        <v>70</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>1990376</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>2493685</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>516029</v>
       </c>
     </row>
     <row r="11" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>360233</v>
+      </c>
+      <c r="D11">
+        <v>551803</v>
+      </c>
+      <c r="E11">
+        <v>87964</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>358228</v>
+      </c>
+      <c r="J11">
+        <v>551186</v>
+      </c>
+      <c r="K11">
+        <v>90586</v>
+      </c>
+      <c r="M11">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>718461</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1102989</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>178550</v>
+      </c>
+      <c r="R11">
+        <v>75</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>1955091</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>2538012</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>506987</v>
+      </c>
+    </row>
+    <row r="12" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>80</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>360435</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>551508</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>88057</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>80</v>
       </c>
-      <c r="I11">
+      <c r="I12">
+        <v>358618</v>
+      </c>
+      <c r="J12">
         <v>550982</v>
       </c>
-      <c r="J11">
-        <v>358618</v>
-      </c>
-      <c r="K11">
+      <c r="K12">
         <v>90400</v>
       </c>
-    </row>
-    <row r="12" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>65</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>65</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="M12">
+        <v>80</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>719053</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1102490</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>178457</v>
+      </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="R12">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>1955070</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>2539351</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>505669</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -909,30 +2438,6 @@
       <c r="CY12" s="2"/>
     </row>
     <row r="13" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>524363</v>
-      </c>
-      <c r="D13">
-        <v>389860</v>
-      </c>
-      <c r="E13">
-        <v>85777</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="I13">
-        <v>387215</v>
-      </c>
-      <c r="J13">
-        <v>528942</v>
-      </c>
-      <c r="K13">
-        <v>83843</v>
-      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1026,31 +2531,15 @@
       <c r="CY13" s="2"/>
     </row>
     <row r="14" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>521028</v>
-      </c>
-      <c r="D14">
-        <v>382718</v>
-      </c>
-      <c r="E14">
-        <v>96254</v>
-      </c>
-      <c r="H14">
-        <v>45</v>
-      </c>
-      <c r="I14">
-        <v>380939</v>
-      </c>
-      <c r="J14">
-        <v>524276</v>
-      </c>
-      <c r="K14">
-        <v>94785</v>
-      </c>
-      <c r="M14" s="2"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1143,34 +2632,42 @@
       <c r="CY14" s="2"/>
     </row>
     <row r="15" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>515577</v>
-      </c>
-      <c r="D15">
-        <v>385596</v>
-      </c>
-      <c r="E15">
-        <v>98827</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
-      <c r="I15">
-        <v>385346</v>
-      </c>
-      <c r="J15">
-        <v>516314</v>
-      </c>
-      <c r="K15">
-        <v>98340</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1260,34 +2757,42 @@
       <c r="CY15" s="2"/>
     </row>
     <row r="16" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>55</v>
-      </c>
-      <c r="C16">
-        <v>491598</v>
-      </c>
-      <c r="D16">
-        <v>399474</v>
-      </c>
-      <c r="E16">
-        <v>108928</v>
-      </c>
-      <c r="H16">
-        <v>55</v>
-      </c>
-      <c r="I16">
-        <v>398818</v>
-      </c>
-      <c r="J16">
-        <v>492146</v>
-      </c>
-      <c r="K16">
-        <v>109036</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1378,33 +2883,44 @@
     </row>
     <row r="17" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>471348</v>
+        <v>524363</v>
       </c>
       <c r="D17">
-        <v>415796</v>
+        <v>389860</v>
       </c>
       <c r="E17">
-        <v>112856</v>
+        <v>85777</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>420816</v>
+        <v>528942</v>
       </c>
       <c r="J17">
-        <v>465165</v>
+        <v>387215</v>
       </c>
       <c r="K17">
-        <v>114019</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+        <v>83843</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17" s="2">
+        <f>C17 + I17</f>
+        <v>1053305</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ref="O17:P17" si="4">D17 + J17</f>
+        <v>777075</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="4"/>
+        <v>169620</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1495,33 +3011,44 @@
     </row>
     <row r="18" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>442546</v>
+        <v>521028</v>
       </c>
       <c r="D18">
-        <v>440412</v>
+        <v>382718</v>
       </c>
       <c r="E18">
-        <v>117042</v>
+        <v>96254</v>
       </c>
       <c r="H18">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I18">
-        <v>442074</v>
+        <v>524276</v>
       </c>
       <c r="J18">
-        <v>440372</v>
+        <v>380939</v>
       </c>
       <c r="K18">
-        <v>117554</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+        <v>94785</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18:N25" si="5">C18 + I18</f>
+        <v>1045304</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18:O25" si="6">D18 + J18</f>
+        <v>763657</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18:P25" si="7">E18 + K18</f>
+        <v>191039</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1612,33 +3139,44 @@
     </row>
     <row r="19" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>404089</v>
+        <v>515577</v>
       </c>
       <c r="D19">
-        <v>487676</v>
+        <v>385596</v>
       </c>
       <c r="E19">
-        <v>108235</v>
+        <v>98827</v>
       </c>
       <c r="H19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I19">
-        <v>485451</v>
+        <v>516314</v>
       </c>
       <c r="J19">
-        <v>404762</v>
+        <v>385346</v>
       </c>
       <c r="K19">
-        <v>109787</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+        <v>98340</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="5"/>
+        <v>1031891</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="6"/>
+        <v>770942</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="7"/>
+        <v>197167</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1729,33 +3267,44 @@
     </row>
     <row r="20" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>397947</v>
+        <v>491598</v>
       </c>
       <c r="D20">
-        <v>496554</v>
+        <v>399474</v>
       </c>
       <c r="E20">
-        <v>105499</v>
+        <v>108928</v>
       </c>
       <c r="H20">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I20">
-        <v>496265</v>
+        <v>492146</v>
       </c>
       <c r="J20">
-        <v>396380</v>
+        <v>398818</v>
       </c>
       <c r="K20">
-        <v>107355</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+        <v>109036</v>
+      </c>
+      <c r="M20">
+        <v>55</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="5"/>
+        <v>983744</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="6"/>
+        <v>798292</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="7"/>
+        <v>217964</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1846,33 +3395,44 @@
     </row>
     <row r="21" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>397055</v>
+        <v>471348</v>
       </c>
       <c r="D21">
-        <v>497244</v>
+        <v>415796</v>
       </c>
       <c r="E21">
-        <v>105701</v>
+        <v>112856</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>497512</v>
+        <v>465165</v>
       </c>
       <c r="J21">
-        <v>395813</v>
+        <v>420816</v>
       </c>
       <c r="K21">
-        <v>106675</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+        <v>114019</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>936513</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="6"/>
+        <v>836612</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="7"/>
+        <v>226875</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1962,34 +3522,45 @@
       <c r="CY21" s="2"/>
     </row>
     <row r="22" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>80</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="B22">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>442546</v>
+      </c>
+      <c r="D22">
+        <v>440412</v>
+      </c>
+      <c r="E22">
+        <v>117042</v>
+      </c>
+      <c r="H22">
+        <v>65</v>
+      </c>
+      <c r="I22">
+        <v>440372</v>
+      </c>
+      <c r="J22">
+        <v>442074</v>
+      </c>
+      <c r="K22">
+        <v>117554</v>
+      </c>
+      <c r="M22">
+        <v>65</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>882918</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="6"/>
+        <v>882486</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="7"/>
+        <v>234596</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -2080,277 +3651,814 @@
     </row>
     <row r="23" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>549819</v>
+        <v>404089</v>
       </c>
       <c r="D23">
-        <v>372256</v>
+        <v>487676</v>
       </c>
       <c r="E23">
-        <v>77925</v>
+        <v>108235</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I23">
-        <v>372695</v>
+        <v>404762</v>
       </c>
       <c r="J23">
-        <v>553021</v>
+        <v>485451</v>
       </c>
       <c r="K23">
-        <v>74284</v>
+        <v>109787</v>
+      </c>
+      <c r="M23">
+        <v>70</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>808851</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="6"/>
+        <v>973127</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="7"/>
+        <v>218022</v>
       </c>
     </row>
     <row r="24" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>553223</v>
+        <v>397947</v>
       </c>
       <c r="D24">
-        <v>359184</v>
+        <v>496554</v>
       </c>
       <c r="E24">
-        <v>87593</v>
+        <v>105499</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I24">
-        <v>359472</v>
+        <v>396380</v>
       </c>
       <c r="J24">
-        <v>555461</v>
+        <v>496265</v>
       </c>
       <c r="K24">
-        <v>85067</v>
+        <v>107355</v>
+      </c>
+      <c r="M24">
+        <v>75</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>794327</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="6"/>
+        <v>992819</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="7"/>
+        <v>212854</v>
       </c>
     </row>
     <row r="25" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C25">
-        <v>549803</v>
+        <v>397055</v>
       </c>
       <c r="D25">
-        <v>359644</v>
+        <v>497244</v>
       </c>
       <c r="E25">
-        <v>90553</v>
+        <v>105701</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I25">
-        <v>359260</v>
+        <v>395813</v>
       </c>
       <c r="J25">
-        <v>552277</v>
+        <v>497512</v>
       </c>
       <c r="K25">
-        <v>88463</v>
-      </c>
-    </row>
-    <row r="26" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <v>537482</v>
-      </c>
-      <c r="D26">
-        <v>363506</v>
-      </c>
-      <c r="E26">
-        <v>99012</v>
-      </c>
-      <c r="H26">
-        <v>55</v>
-      </c>
-      <c r="I26">
-        <v>364527</v>
-      </c>
-      <c r="J26">
-        <v>537816</v>
-      </c>
-      <c r="K26">
-        <v>97657</v>
+        <v>106675</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="5"/>
+        <v>792868</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="6"/>
+        <v>994756</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="7"/>
+        <v>212376</v>
       </c>
     </row>
     <row r="27" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>60</v>
-      </c>
-      <c r="C27">
-        <v>520613</v>
-      </c>
-      <c r="D27">
-        <v>376614</v>
-      </c>
-      <c r="E27">
-        <v>102773</v>
-      </c>
-      <c r="H27">
-        <v>60</v>
-      </c>
-      <c r="I27">
-        <v>380892</v>
-      </c>
-      <c r="J27">
-        <v>516550</v>
-      </c>
-      <c r="K27">
-        <v>102558</v>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>65</v>
-      </c>
-      <c r="C28">
-        <v>496639</v>
-      </c>
-      <c r="D28">
-        <v>396701</v>
-      </c>
-      <c r="E28">
-        <v>106660</v>
-      </c>
-      <c r="H28">
-        <v>65</v>
-      </c>
-      <c r="I28">
-        <v>398075</v>
-      </c>
-      <c r="J28">
-        <v>496079</v>
-      </c>
-      <c r="K28">
-        <v>105846</v>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>451618</v>
-      </c>
-      <c r="D29">
-        <v>433476</v>
-      </c>
-      <c r="E29">
-        <v>114906</v>
-      </c>
-      <c r="H29">
-        <v>70</v>
-      </c>
-      <c r="I29">
-        <v>432197</v>
-      </c>
-      <c r="J29">
-        <v>452901</v>
-      </c>
-      <c r="K29">
-        <v>114902</v>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>442273</v>
+        <v>549819</v>
       </c>
       <c r="D30">
-        <v>442174</v>
+        <v>372256</v>
       </c>
       <c r="E30">
-        <v>115553</v>
+        <v>77925</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I30">
-        <v>443329</v>
+        <v>553021</v>
       </c>
       <c r="J30">
-        <v>442423</v>
+        <v>372695</v>
       </c>
       <c r="K30">
-        <v>114248</v>
+        <v>74284</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <f>C30 + 30</f>
+        <v>549849</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:P38" si="8">D30 + 30</f>
+        <v>372286</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>77955</v>
       </c>
     </row>
     <row r="31" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>553223</v>
+      </c>
+      <c r="D31">
+        <v>359184</v>
+      </c>
+      <c r="E31">
+        <v>87593</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+      <c r="I31">
+        <v>555461</v>
+      </c>
+      <c r="J31">
+        <v>359472</v>
+      </c>
+      <c r="K31">
+        <v>85067</v>
+      </c>
+      <c r="M31">
+        <v>45</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N38" si="9">C31 + 30</f>
+        <v>553253</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>359214</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>87623</v>
+      </c>
+    </row>
+    <row r="32" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>549803</v>
+      </c>
+      <c r="D32">
+        <v>359644</v>
+      </c>
+      <c r="E32">
+        <v>90553</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>552277</v>
+      </c>
+      <c r="J32">
+        <v>359260</v>
+      </c>
+      <c r="K32">
+        <v>88463</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>549833</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>359674</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>90583</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>537482</v>
+      </c>
+      <c r="D33">
+        <v>363506</v>
+      </c>
+      <c r="E33">
+        <v>99012</v>
+      </c>
+      <c r="H33">
+        <v>55</v>
+      </c>
+      <c r="I33">
+        <v>537816</v>
+      </c>
+      <c r="J33">
+        <v>364527</v>
+      </c>
+      <c r="K33">
+        <v>97657</v>
+      </c>
+      <c r="M33">
+        <v>55</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
+        <v>537512</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>363536</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>99042</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>520613</v>
+      </c>
+      <c r="D34">
+        <v>376614</v>
+      </c>
+      <c r="E34">
+        <v>102773</v>
+      </c>
+      <c r="H34">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>516550</v>
+      </c>
+      <c r="J34">
+        <v>380892</v>
+      </c>
+      <c r="K34">
+        <v>102558</v>
+      </c>
+      <c r="M34">
+        <v>60</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>520643</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>376644</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>102803</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>496639</v>
+      </c>
+      <c r="D35">
+        <v>396701</v>
+      </c>
+      <c r="E35">
+        <v>106660</v>
+      </c>
+      <c r="H35">
+        <v>65</v>
+      </c>
+      <c r="I35">
+        <v>496079</v>
+      </c>
+      <c r="J35">
+        <v>398075</v>
+      </c>
+      <c r="K35">
+        <v>105846</v>
+      </c>
+      <c r="M35">
+        <v>65</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>496669</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>396731</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>106690</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>451618</v>
+      </c>
+      <c r="D36">
+        <v>433476</v>
+      </c>
+      <c r="E36">
+        <v>114906</v>
+      </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>452901</v>
+      </c>
+      <c r="J36">
+        <v>432197</v>
+      </c>
+      <c r="K36">
+        <v>114902</v>
+      </c>
+      <c r="M36">
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>451648</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>433506</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>114936</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>442273</v>
+      </c>
+      <c r="D37">
+        <v>442174</v>
+      </c>
+      <c r="E37">
+        <v>115553</v>
+      </c>
+      <c r="H37">
+        <v>75</v>
+      </c>
+      <c r="I37">
+        <v>442423</v>
+      </c>
+      <c r="J37">
+        <v>443329</v>
+      </c>
+      <c r="K37">
+        <v>114248</v>
+      </c>
+      <c r="M37">
+        <v>75</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>442303</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>442204</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>115583</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>80</v>
       </c>
-      <c r="C31">
+      <c r="C38">
         <v>443119</v>
       </c>
-      <c r="D31">
+      <c r="D38">
         <v>442075</v>
       </c>
-      <c r="E31">
+      <c r="E38">
         <v>114806</v>
       </c>
-      <c r="H31">
+      <c r="H38">
         <v>80</v>
       </c>
-      <c r="I31">
+      <c r="I38">
+        <v>442389</v>
+      </c>
+      <c r="J38">
         <v>442804</v>
       </c>
-      <c r="J31">
-        <v>442389</v>
-      </c>
-      <c r="K31">
+      <c r="K38">
         <v>114807</v>
       </c>
-    </row>
-    <row r="32" spans="2:103" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="M38">
+        <v>80</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>443149</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>442105</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>114836</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
         <v>6</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="J32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Dave.xlsx
+++ b/Dave.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\TP3-Stats-BlackJack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="17715" windowHeight="9780" activeTab="1"/>
   </bookViews>
@@ -214,26 +209,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -363,11 +338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="953802432"/>
-        <c:axId val="953804608"/>
+        <c:axId val="214739968"/>
+        <c:axId val="240567808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="953802432"/>
+        <c:axId val="214739968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,26 +387,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -470,7 +425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953804608"/>
+        <c:crossAx val="240567808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -478,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="953804608"/>
+        <c:axId val="240567808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,26 +488,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -585,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953802432"/>
+        <c:crossAx val="214739968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,6 +561,820 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Contre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> l'IA à 40</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Joue en premier</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>469341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>438862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>364370</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joue en deuxième</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$I$4:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>482623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>458519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>419682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140868992"/>
+        <c:axId val="140878976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140868992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140878976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140878976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140868992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Contre l'IA à 80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Joue en premier</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$B$30:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$C$30:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>549819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>549803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>496639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>442273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>443119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joue en deuxième</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$B$30:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$I$30:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>553021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>552277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>516550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>496079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>452901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>442423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>442389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="151022592"/>
+        <c:axId val="151024384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151022592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151024384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151024384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151022592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Contre l'IA à 65</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Joue en premier</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$H$17:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$C$17:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>524363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>491598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joue en deuxième</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Données!$H$17:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$I$17:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>528942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>516314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>492146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>465165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>395813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="151433216"/>
+        <c:axId val="151434752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151433216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151434752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151434752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151433216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1227,9 +1976,9 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4667250" cy="2533650"/>
+    <xdr:ext cx="4667250" cy="2771775"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1237,8 +1986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16640175" y="5962650"/>
-          <a:ext cx="4667250" cy="2533650"/>
+          <a:off x="16640175" y="5962649"/>
+          <a:ext cx="4667250" cy="2771775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,7 +2046,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Avant de faire les teste, je pensais que l'IA qui allait jouer en deuxième avait plus de chances de gagner puisqu'elle ne joue pas si son adversaire  à dépassé 21. Contre mes attentes, la différence est presque négligeable. </a:t>
+            <a:t>Avant de faire les tests, je pensais que l'IA qui allait jouer en deuxième avait plus de chances de gagner puisqu'elle ne joue pas si son adversaire  à dépassé 21. Contre mes attentes, la différence est presque négligeable. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1306,7 +2055,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Comme on peut l'observer, le nombre de victoires descent drastiquement lorsque que l'IA joue à 50% et plus de ne pas dépasser.</a:t>
+            <a:t>Comme on peut l'observer, le nombre de victoires descent drastiquement lorsque que l'IA qui est contre joue à 50% de chances  et plus de ne pas dépasser.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1340,11 +2089,276 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique as"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1685924</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22726650" y="1819275"/>
+          <a:ext cx="8020050" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Graphiques</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> concernant le nombre de victoires selon qui joue en premier</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="371476"/>
+          <a:ext cx="5686425" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Analyse des parties</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pour</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> commencer, j'ai fait douze partie avec ce que j'ai déterminé étant la meilleur intelligence artificielle. Sur les douze parties, j'ai commencer en premier pour six d'entre elles.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Je m'en suis sorti gagnant pour une seule raison, moi j'étais capable de déterminer que par exemple j'avais 20 et que l'IA avait 19, donc que j'allait gagner. Étant le premier à joue je passe mon tour, l'IA aussi a passé son tour puisqu'elle ne se base que sur les probabilités (À moins que j'aie 21), la chose que j'aurais fait (et que j'ai fait dans certaines parties) à sa place serait de jouer. En appliquant ces techinques j'ai pu m'en sortir avec plus de victoires que l'IA.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Évidemment ceci n'est pas représentatif, mais je pense quand même que je pourrais continuer à la battre, à moins qu'elle ne se mette à appliquer mes techniques.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1386,7 +2400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1421,7 +2435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1632,11 +2646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CY39"/>
   <sheetViews>
-    <sheetView topLeftCell="Q8" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView topLeftCell="O16" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
@@ -4257,7 +5271,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
   </cols>
@@ -4460,5 +5474,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dave.xlsx
+++ b/Dave.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="17715" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="17715" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
     <sheet name="Parties contre l'IA optimale" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>Victoires</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Totaux contre l'IA à 50</t>
   </si>
   <si>
-    <t>Totaux des victoires contre les 3 IA (6,000,000 de parties jouées)</t>
-  </si>
-  <si>
     <t>Partie</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>Nulles: 1</t>
+  </si>
+  <si>
+    <t>Totaux contre l'IA à 65</t>
+  </si>
+  <si>
+    <t>Totaux contre l'IA à 80</t>
+  </si>
+  <si>
+    <t>Totaux des victoires contre les 3 IA (270,000,000 de parties jouées)</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -338,11 +344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214739968"/>
-        <c:axId val="240567808"/>
+        <c:axId val="123726080"/>
+        <c:axId val="134992640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214739968"/>
+        <c:axId val="123726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,10 +428,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240567808"/>
+        <c:crossAx val="134992640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -433,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240567808"/>
+        <c:axId val="134992640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,10 +523,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214739968"/>
+        <c:crossAx val="123726080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,7 +564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -572,7 +578,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -788,21 +794,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140868992"/>
-        <c:axId val="140878976"/>
+        <c:axId val="134895488"/>
+        <c:axId val="134901760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140868992"/>
+        <c:axId val="134895488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Diffuculté de l'IA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140878976"/>
+        <c:crossAx val="134901760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,18 +835,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140878976"/>
+        <c:axId val="134901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre de parties gagnées</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140868992"/>
+        <c:crossAx val="134895488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -846,7 +890,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1058,21 +1102,45 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151022592"/>
-        <c:axId val="151024384"/>
+        <c:axId val="136053888"/>
+        <c:axId val="136055808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151022592"/>
+        <c:axId val="136053888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Difficulté</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> de l'IA</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151024384"/>
+        <c:crossAx val="136055808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,18 +1148,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151024384"/>
+        <c:axId val="136055808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Noimbre de parties gagnées</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151022592"/>
+        <c:crossAx val="136053888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,7 +1203,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1328,21 +1415,43 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151433216"/>
-        <c:axId val="151434752"/>
+        <c:axId val="136102272"/>
+        <c:axId val="136104192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151433216"/>
+        <c:axId val="136102272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Diffuculté de l'IA</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151434752"/>
+        <c:crossAx val="136104192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1350,18 +1459,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151434752"/>
+        <c:axId val="136104192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre de parties gagnées</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151433216"/>
+        <c:crossAx val="136102272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1973,10 +2101,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>99482</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4667250" cy="2771775"/>
     <xdr:sp macro="" textlink="">
@@ -1986,7 +2114,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16640175" y="5962649"/>
+          <a:off x="17759892" y="6004982"/>
           <a:ext cx="4667250" cy="2771775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2092,15 +2220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2709333</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2121,16 +2249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115359</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2151,16 +2279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1685924</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2730500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2182,15 +2310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>229659</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>62441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2199,8 +2327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22726650" y="1819275"/>
-          <a:ext cx="8020050" cy="466725"/>
+          <a:off x="22877992" y="62441"/>
+          <a:ext cx="5189008" cy="921809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2231,7 +2359,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
@@ -2244,11 +2372,112 @@
             <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t> concernant le nombre de victoires selon qui joue en premier</a:t>
+            <a:t> concernant le nombre de victoires</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> selon qui joue en premier</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000" b="1">
             <a:latin typeface="+mn-lt"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>124883</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>973666</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28562300" y="3197226"/>
+          <a:ext cx="5484283" cy="2824692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Analyse des parties</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pour</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> commencer, j'ai fait douze partie avec ce que j'ai déterminé étant la meilleur intelligence artificielle. Sur les douze parties, j'ai commencer en premier pour six d'entre elles.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Je m'en suis sorti gagnant pour une seule raison, moi j'étais capable de déterminer que par exemple j'avais 20 et que l'IA avait 19, donc que j'allait gagner. Étant le premier à joue je passe mon tour, l'IA aussi a passé son tour puisqu'elle ne se base que sur les probabilités (À moins que j'aie 21), la chose que j'aurais fait (et que j'ai fait dans certaines parties) à sa place serait de jouer. En appliquant ces techinques j'ai pu m'en sortir avec plus de victoires que l'IA.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Évidemment ceci n'est pas représentatif, mais je pense quand même que je pourrais continuer à la battre, à moins qu'elle ne se mette à appliquer mes techniques.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2646,33 +2875,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CY39"/>
   <sheetViews>
-    <sheetView topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" customWidth="1"/>
     <col min="15" max="15" width="25.5703125" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="19.42578125" customWidth="1"/>
     <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="25.5703125" customWidth="1"/>
+    <col min="24" max="24" width="43.7109375" customWidth="1"/>
     <col min="25" max="25" width="26" customWidth="1"/>
-    <col min="26" max="26" width="23.85546875" customWidth="1"/>
-    <col min="27" max="27" width="25.5703125" customWidth="1"/>
-    <col min="28" max="28" width="26" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" customWidth="1"/>
     <col min="29" max="29" width="17.28515625" customWidth="1"/>
     <col min="30" max="30" width="19" customWidth="1"/>
     <col min="31" max="31" width="19.42578125" customWidth="1"/>
@@ -2761,7 +2992,19 @@
         <v>14</v>
       </c>
       <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
         <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:103" x14ac:dyDescent="0.25">
@@ -2813,6 +3056,18 @@
       <c r="U2" t="s">
         <v>2</v>
       </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2">
+        <v>17</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2863,6 +3118,18 @@
       <c r="U3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>21</v>
+      </c>
+      <c r="AB3">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -2919,6 +3186,18 @@
         <f t="shared" si="1"/>
         <v>452559</v>
       </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4">
+        <v>16</v>
+      </c>
+      <c r="AB4">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -2975,6 +3254,18 @@
         <f t="shared" si="1"/>
         <v>508093</v>
       </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5">
+        <v>23</v>
+      </c>
+      <c r="AB5">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -3031,6 +3322,18 @@
         <f t="shared" si="1"/>
         <v>523132</v>
       </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6">
+        <v>23</v>
+      </c>
+      <c r="AB6">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -3087,6 +3390,18 @@
         <f t="shared" si="1"/>
         <v>538195</v>
       </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7">
+        <v>19</v>
+      </c>
+      <c r="AB7">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -3143,6 +3458,18 @@
         <f t="shared" si="1"/>
         <v>539745</v>
       </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA8">
+        <v>20</v>
+      </c>
+      <c r="AB8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -3199,6 +3526,18 @@
         <f t="shared" si="1"/>
         <v>538778</v>
       </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9">
+        <v>17</v>
+      </c>
+      <c r="AB9">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -3255,6 +3594,18 @@
         <f t="shared" si="1"/>
         <v>516029</v>
       </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10">
+        <v>27</v>
+      </c>
+      <c r="AB10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -3311,6 +3662,18 @@
         <f t="shared" si="1"/>
         <v>506987</v>
       </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:103" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -3371,19 +3734,18 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA12">
+        <v>21</v>
+      </c>
+      <c r="AB12">
+        <v>20</v>
+      </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
@@ -3464,19 +3826,18 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13">
+        <v>20</v>
+      </c>
+      <c r="AB13">
+        <v>17</v>
+      </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
@@ -3552,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3565,19 +3926,6 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
@@ -3690,19 +4038,18 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
@@ -3815,19 +4162,6 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
@@ -3943,19 +4277,6 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
@@ -4071,19 +4392,6 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
@@ -4199,19 +4507,6 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
@@ -4327,19 +4622,6 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
@@ -4794,7 +5076,7 @@
         <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:103" x14ac:dyDescent="0.25">
@@ -5267,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="A1:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5278,16 +5560,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -5309,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -5323,7 +5605,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -5337,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -5351,7 +5633,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -5365,7 +5647,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -5379,7 +5661,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -5393,7 +5675,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -5407,7 +5689,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>27</v>
@@ -5421,7 +5703,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -5435,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -5449,7 +5731,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -5460,16 +5742,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
